--- a/PY_ML_Jigsaw_Codes/Trees_and_Ensemble/Code Snippets/Gini Calculation.xlsx
+++ b/PY_ML_Jigsaw_Codes/Trees_and_Ensemble/Code Snippets/Gini Calculation.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxnik\Documents\Jigsaw\Jigsaw Courses\Trees &amp; Ensemble\Code Snippets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Python_Data_Science_Course\PY_ML_Jigsaw_Codes\Trees_and_Ensemble\Code Snippets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF55C11-2316-421B-8F63-562C38AD1B8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78956FE0-3904-48DB-B9E0-75D9C69BD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D18DD0E-0E79-47DE-BC03-15BEE825994F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0D18DD0E-0E79-47DE-BC03-15BEE825994F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +29,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="22">
   <si>
     <t>Customer</t>
   </si>
@@ -70,12 +81,39 @@
   <si>
     <t>4 Gini</t>
   </si>
+  <si>
+    <t>&lt; 35, Single = 50% Profitable</t>
+  </si>
+  <si>
+    <t>&gt; 35, Married = 50% Profitable</t>
+  </si>
+  <si>
+    <t>&gt; 35, Married = 80% Profitable</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Customer</t>
+  </si>
+  <si>
+    <t>Age35</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +128,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -127,22 +179,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -155,10 +254,290 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="44640.639953587961" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="10" xr:uid="{32ADD038-1B0F-4E91-802D-F2D4FC03056C}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Cust3"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Customer" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="26" maxValue="58" count="10">
+        <n v="26"/>
+        <n v="28"/>
+        <n v="30"/>
+        <n v="32"/>
+        <n v="36"/>
+        <n v="38"/>
+        <n v="40"/>
+        <n v="44"/>
+        <n v="56"/>
+        <n v="58"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age35" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Marital Status" numFmtId="0">
+      <sharedItems count="2">
+        <s v="M"/>
+        <s v="S"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cards" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Profitable" numFmtId="0">
+      <sharedItems count="2">
+        <s v="U"/>
+        <s v="P"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <n v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="M"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="9"/>
+    <x v="1"/>
+    <s v="F"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E782474A-D3E1-4E06-A0BD-A1DBCC598E12}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Customer" fld="0" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCE0FF95-56D8-4A81-B97E-1E9B99C245F5}" name="Cust" displayName="Cust" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11" xr:uid="{3055360F-AEFC-479E-BDE1-89FCDDAF805D}"/>
-  <sortState ref="A2:F11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="B2:B11"/>
   </sortState>
   <tableColumns count="6">
@@ -168,6 +547,26 @@
     <tableColumn id="4" xr3:uid="{E6286A27-C02D-471D-AC99-CD350134DA71}" name="Marital Status"/>
     <tableColumn id="5" xr3:uid="{24E47D8D-E8C5-47DB-B5DC-A8EA7FACCD31}" name="cards"/>
     <tableColumn id="6" xr3:uid="{4115BE44-C206-48C3-B190-536D3683B28F}" name="Profitable"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F00641CF-6DD9-45E2-B421-087FA2E6A78F}" name="Cust3" displayName="Cust3" ref="A1:G11" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{30E4838D-7213-49A6-88D9-C53713489941}" name="Customer"/>
+    <tableColumn id="2" xr3:uid="{A8D9F1FA-6C04-4B41-BF85-3E5DCE0DFFDB}" name="Age"/>
+    <tableColumn id="7" xr3:uid="{0C93D3EF-ACFC-467F-85E5-55D9E1BF7A65}" name="Age35" dataDxfId="0">
+      <calculatedColumnFormula>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FB51CAA0-30B5-4AE6-A891-0BAE54B14103}" name="Gender"/>
+    <tableColumn id="4" xr3:uid="{06501180-332E-4D8A-A5BE-73515B8B420C}" name="Marital Status"/>
+    <tableColumn id="5" xr3:uid="{04273212-8BD7-4A76-972A-DB98B55FF8CE}" name="cards"/>
+    <tableColumn id="6" xr3:uid="{4041A131-F60B-44A8-B206-C69ACCCA1364}" name="Profitable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,18 +871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA1EF9F-8776-4008-859B-C41544A552B2}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -540,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -571,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -591,7 +990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -611,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -645,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -676,7 +1075,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -696,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -722,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -753,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -784,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
@@ -806,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>AVERAGE(B2:B3)</f>
         <v>27</v>
@@ -834,7 +1233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>AVERAGE(B3:B4)</f>
         <v>29</v>
@@ -851,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>AVERAGE(B4:B5)</f>
         <v>31</v>
@@ -868,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>AVERAGE(B5:B6)</f>
         <v>34</v>
@@ -889,12 +1288,1003 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
     <sortCondition ref="B2:B11"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1301D205-A8EC-416A-A479-87AAF23D41D1}">
+  <dimension ref="A3:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <f>C5/E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ref="G6:G9" si="0">C6/E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDCA5A-3D66-4395-ABC0-FAAE3630F38F}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <f>IF(Cust3[[#This Row],[Age]]&gt;35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8CB014-215E-4027-98E1-B415F4C706B9}">
+  <dimension ref="A2:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2" s="11">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <f>IF($B3&gt;C$2,1,)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:K12" si="0">IF($B3&gt;D$2,1,)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="1">IF($B4&gt;C$2,1,)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>